--- a/testing/xlsx/main_output.xlsx
+++ b/testing/xlsx/main_output.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,11 +491,6 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>NUMBER OF PROGRAMME RUNS</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
           <t>SCRAP</t>
         </is>
       </c>
@@ -538,11 +533,6 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>9.26 %</t>
         </is>
       </c>
@@ -585,11 +575,6 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>34.02 %</t>
         </is>
       </c>
@@ -632,11 +617,6 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
           <t>83.52 %</t>
         </is>
       </c>
@@ -679,11 +659,6 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>30.07 %</t>
         </is>
       </c>
@@ -726,59 +701,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>0.95 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>/TRUMPF.NET/Workfiles/User1/test.LST</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.4301-30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2500 x 670 x 3 mm</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>39.70 kg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0 : 01 : 05 [h:min:s]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>903.754 mm</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>49.03 %</t>
         </is>
       </c>
     </row>

--- a/testing/xlsx/main_output.xlsx
+++ b/testing/xlsx/main_output.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,48 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>/TRUMPF.NET/Workfiles/User1/test.LST</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.4301-30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2500 x 670 x 3 mm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.70 kg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0 : 01 : 05 [h:min:s]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>903.754 mm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>49.03 %</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/xlsx/main_output.xlsx
+++ b/testing/xlsx/main_output.xlsx
@@ -1,29 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="podatki" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="podatki" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,80 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -440,314 +396,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>MACHINE</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>NC PROGRAM PATH</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MATERIAL ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>BLANK</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>WEIGHT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>MACHINING TIME</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>LASER TOTAL CUTTING LENGTH</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>SCRAP</t>
-        </is>
+      <c r="A1" t="str">
+        <v>MACHINE</v>
+      </c>
+      <c r="B1" t="str">
+        <v>NC PROGRAM PATH</v>
+      </c>
+      <c r="C1" t="str">
+        <v>MATERIAL ID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>BLANK</v>
+      </c>
+      <c r="E1" t="str">
+        <v>WEIGHT</v>
+      </c>
+      <c r="F1" t="str">
+        <v>MACHINING TIME</v>
+      </c>
+      <c r="G1" t="str">
+        <v>LASER TOTAL CUTTING LENGTH</v>
+      </c>
+      <c r="H1" t="str">
+        <v>SCRAP</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>/TRUMPF.NET/Workfiles/User1/9500.LST</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AlMg3-16</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4000 x 244 x 1.6 mm</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.22 kg</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0 : 02 : 29 [h:min:s]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.000 mm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>9.26 %</t>
-        </is>
+      <c r="A2" t="str">
+        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
+      </c>
+      <c r="B2" t="str">
+        <v>/TRUMPF.NET/Workfiles/User1/9500.LST</v>
+      </c>
+      <c r="C2" t="str">
+        <v>AlMg3-16</v>
+      </c>
+      <c r="D2" t="str">
+        <v>4000 x 244 x 1.6 mm</v>
+      </c>
+      <c r="E2" t="str">
+        <v>4.22 kg</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0 : 02 : 29 [h:min:s]</v>
+      </c>
+      <c r="G2" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="H2" t="str">
+        <v>9.26 %</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>/TRUMPF.NET/Workfiles/User1/81011.LST</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.4301-32</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2130 x 1290 x 3.2 mm</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69.46 kg</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0 : 11 : 49 [h:min:s]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.000 mm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>34.02 %</t>
-        </is>
+      <c r="A3" t="str">
+        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
+      </c>
+      <c r="B3" t="str">
+        <v>/TRUMPF.NET/Workfiles/User1/81011.LST</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1.4301-32</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2130 x 1290 x 3.2 mm</v>
+      </c>
+      <c r="E3" t="str">
+        <v>69.46 kg</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0 : 11 : 49 [h:min:s]</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="H3" t="str">
+        <v>34.02 %</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>/TRUMPF.NET/Workfiles/User1/319930.LST</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>St37-08 1.0038</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>760 x 460 x 0.8 mm</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.20 kg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0 : 01 : 41 [h:min:s]</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.000 mm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>83.52 %</t>
-        </is>
+      <c r="A4" t="str">
+        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
+      </c>
+      <c r="B4" t="str">
+        <v>/TRUMPF.NET/Workfiles/User1/319930.LST</v>
+      </c>
+      <c r="C4" t="str">
+        <v>St37-08 1.0038</v>
+      </c>
+      <c r="D4" t="str">
+        <v>760 x 460 x 0.8 mm</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2.20 kg</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0 : 01 : 41 [h:min:s]</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="H4" t="str">
+        <v>83.52 %</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>/TRUMPF.NET/Workfiles/User1/500585.LST</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AlMg3-30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>700 x 780 x 3 mm</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.42 kg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0 : 01 : 35 [h:min:s]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.000 mm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>30.07 %</t>
-        </is>
+      <c r="A5" t="str">
+        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
+      </c>
+      <c r="B5" t="str">
+        <v>/TRUMPF.NET/Workfiles/User1/500585.LST</v>
+      </c>
+      <c r="C5" t="str">
+        <v>AlMg3-30</v>
+      </c>
+      <c r="D5" t="str">
+        <v>700 x 780 x 3 mm</v>
+      </c>
+      <c r="E5" t="str">
+        <v>4.42 kg</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0 : 01 : 35 [h:min:s]</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="H5" t="str">
+        <v>30.07 %</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>/TRUMPF.NET/Workfiles/User1/3712951.LST</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>St37-13 1.0038</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1000 x 282 x 1.3 mm</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.88 kg</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0 : 01 : 03 [h:min:s]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.000 mm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.95 %</t>
-        </is>
+      <c r="B6" t="str">
+        <v>/TRUMPF.NET/Workfiles/User1/3712951.LST</v>
+      </c>
+      <c r="C6" t="str">
+        <v>St37-13 1.0038</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1000 x 282 x 1.3 mm</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2.88 kg</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0 : 01 : 03 [h:min:s]</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="H6" t="str">
+        <v>0.95 %</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>/TRUMPF.NET/Workfiles/User1/test.LST</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.4301-30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2500 x 670 x 3 mm</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>39.70 kg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0 : 01 : 05 [h:min:s]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>903.754 mm</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>49.03 %</t>
-        </is>
+      <c r="B7" t="str">
+        <v>/TRUMPF.NET/Workfiles/User1/test.LST</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1.4301-30</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2500 x 670 x 3 mm</v>
+      </c>
+      <c r="E7" t="str">
+        <v>39.70 kg</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0 : 01 : 05 [h:min:s]</v>
+      </c>
+      <c r="G7" t="str">
+        <v>903.754 mm</v>
+      </c>
+      <c r="H7" t="str">
+        <v>49.03 %</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/testing/xlsx/main_output.xlsx
+++ b/testing/xlsx/main_output.xlsx
@@ -1,41 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brbb0\Documents\Delo\Bučar\KB-Calculate\KB-Calculate\testing\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532C4794-6782-4EE0-856E-79C6F7F9E2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="podatki" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+  <si>
+    <t>MACHINE</t>
+  </si>
+  <si>
+    <t>NC PROGRAM PATH</t>
+  </si>
+  <si>
+    <t>MATERIAL ID</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>MACHINING TIME</t>
+  </si>
+  <si>
+    <t>LASER TOTAL CUTTING LENGTH</t>
+  </si>
+  <si>
+    <t>SCRAP</t>
+  </si>
+  <si>
+    <t>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</t>
+  </si>
+  <si>
+    <t>/TRUMPF.NET/Workfiles/User1/9500.LST</t>
+  </si>
+  <si>
+    <t>AlMg3-16</t>
+  </si>
+  <si>
+    <t>4000 x 244 x 1.6 mm</t>
+  </si>
+  <si>
+    <t>4.22 kg</t>
+  </si>
+  <si>
+    <t>0 : 02 : 29 [h:min:s]</t>
+  </si>
+  <si>
+    <t>0.000 mm</t>
+  </si>
+  <si>
+    <t>9.26 %</t>
+  </si>
+  <si>
+    <t>/TRUMPF.NET/Workfiles/User1/81011.LST</t>
+  </si>
+  <si>
+    <t>1.4301-32</t>
+  </si>
+  <si>
+    <t>2130 x 1290 x 3.2 mm</t>
+  </si>
+  <si>
+    <t>69.46 kg</t>
+  </si>
+  <si>
+    <t>0 : 11 : 49 [h:min:s]</t>
+  </si>
+  <si>
+    <t>34.02 %</t>
+  </si>
+  <si>
+    <t>/TRUMPF.NET/Workfiles/User1/319930.LST</t>
+  </si>
+  <si>
+    <t>St37-08 1.0038</t>
+  </si>
+  <si>
+    <t>760 x 460 x 0.8 mm</t>
+  </si>
+  <si>
+    <t>2.20 kg</t>
+  </si>
+  <si>
+    <t>0 : 01 : 41 [h:min:s]</t>
+  </si>
+  <si>
+    <t>83.52 %</t>
+  </si>
+  <si>
+    <t>/TRUMPF.NET/Workfiles/User1/500585.LST</t>
+  </si>
+  <si>
+    <t>AlMg3-30</t>
+  </si>
+  <si>
+    <t>700 x 780 x 3 mm</t>
+  </si>
+  <si>
+    <t>4.42 kg</t>
+  </si>
+  <si>
+    <t>0 : 01 : 35 [h:min:s]</t>
+  </si>
+  <si>
+    <t>30.07 %</t>
+  </si>
+  <si>
+    <t>/TRUMPF.NET/Workfiles/User1/3712951.LST</t>
+  </si>
+  <si>
+    <t>St37-13 1.0038</t>
+  </si>
+  <si>
+    <t>1000 x 282 x 1.3 mm</t>
+  </si>
+  <si>
+    <t>2.88 kg</t>
+  </si>
+  <si>
+    <t>0 : 01 : 03 [h:min:s]</t>
+  </si>
+  <si>
+    <t>0.95 %</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +176,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,191 +515,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>MACHINE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>NC PROGRAM PATH</v>
-      </c>
-      <c r="C1" t="str">
-        <v>MATERIAL ID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>BLANK</v>
-      </c>
-      <c r="E1" t="str">
-        <v>WEIGHT</v>
-      </c>
-      <c r="F1" t="str">
-        <v>MACHINING TIME</v>
-      </c>
-      <c r="G1" t="str">
-        <v>LASER TOTAL CUTTING LENGTH</v>
-      </c>
-      <c r="H1" t="str">
-        <v>SCRAP</v>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
-      </c>
-      <c r="B2" t="str">
-        <v>/TRUMPF.NET/Workfiles/User1/9500.LST</v>
-      </c>
-      <c r="C2" t="str">
-        <v>AlMg3-16</v>
-      </c>
-      <c r="D2" t="str">
-        <v>4000 x 244 x 1.6 mm</v>
-      </c>
-      <c r="E2" t="str">
-        <v>4.22 kg</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0 : 02 : 29 [h:min:s]</v>
-      </c>
-      <c r="G2" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="H2" t="str">
-        <v>9.26 %</v>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
-      </c>
-      <c r="B3" t="str">
-        <v>/TRUMPF.NET/Workfiles/User1/81011.LST</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1.4301-32</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2130 x 1290 x 3.2 mm</v>
-      </c>
-      <c r="E3" t="str">
-        <v>69.46 kg</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0 : 11 : 49 [h:min:s]</v>
-      </c>
-      <c r="G3" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="H3" t="str">
-        <v>34.02 %</v>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
-      </c>
-      <c r="B4" t="str">
-        <v>/TRUMPF.NET/Workfiles/User1/319930.LST</v>
-      </c>
-      <c r="C4" t="str">
-        <v>St37-08 1.0038</v>
-      </c>
-      <c r="D4" t="str">
-        <v>760 x 460 x 0.8 mm</v>
-      </c>
-      <c r="E4" t="str">
-        <v>2.20 kg</v>
-      </c>
-      <c r="F4" t="str">
-        <v>0 : 01 : 41 [h:min:s]</v>
-      </c>
-      <c r="G4" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="H4" t="str">
-        <v>83.52 %</v>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>TC600L - TYPE: 1 (2535.0 x 1280.0 mm)</v>
-      </c>
-      <c r="B5" t="str">
-        <v>/TRUMPF.NET/Workfiles/User1/500585.LST</v>
-      </c>
-      <c r="C5" t="str">
-        <v>AlMg3-30</v>
-      </c>
-      <c r="D5" t="str">
-        <v>700 x 780 x 3 mm</v>
-      </c>
-      <c r="E5" t="str">
-        <v>4.42 kg</v>
-      </c>
-      <c r="F5" t="str">
-        <v>0 : 01 : 35 [h:min:s]</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="H5" t="str">
-        <v>30.07 %</v>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>/TRUMPF.NET/Workfiles/User1/3712951.LST</v>
-      </c>
-      <c r="C6" t="str">
-        <v>St37-13 1.0038</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1000 x 282 x 1.3 mm</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2.88 kg</v>
-      </c>
-      <c r="F6" t="str">
-        <v>0 : 01 : 03 [h:min:s]</v>
-      </c>
-      <c r="G6" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="H6" t="str">
-        <v>0.95 %</v>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>/TRUMPF.NET/Workfiles/User1/test.LST</v>
-      </c>
-      <c r="C7" t="str">
-        <v>1.4301-30</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2500 x 670 x 3 mm</v>
-      </c>
-      <c r="E7" t="str">
-        <v>39.70 kg</v>
-      </c>
-      <c r="F7" t="str">
-        <v>0 : 01 : 05 [h:min:s]</v>
-      </c>
-      <c r="G7" t="str">
-        <v>903.754 mm</v>
-      </c>
-      <c r="H7" t="str">
-        <v>49.03 %</v>
-      </c>
-    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError sqref="A1:H6 A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testing/xlsx/main_output.xlsx
+++ b/testing/xlsx/main_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brbb0\Documents\Delo\Bučar\KB-Calculate\KB-Calculate\testing\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532C4794-6782-4EE0-856E-79C6F7F9E2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3307B12A-154F-4C5D-9176-05D7815EE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>MACHINE</t>
   </si>
@@ -122,24 +122,6 @@
   </si>
   <si>
     <t>30.07 %</t>
-  </si>
-  <si>
-    <t>/TRUMPF.NET/Workfiles/User1/3712951.LST</t>
-  </si>
-  <si>
-    <t>St37-13 1.0038</t>
-  </si>
-  <si>
-    <t>1000 x 282 x 1.3 mm</t>
-  </si>
-  <si>
-    <t>2.88 kg</t>
-  </si>
-  <si>
-    <t>0 : 01 : 03 [h:min:s]</t>
-  </si>
-  <si>
-    <t>0.95 %</t>
   </si>
 </sst>
 </file>
@@ -516,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -576,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -602,7 +584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -628,7 +610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -654,34 +636,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H6 A7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/testing/xlsx/main_output.xlsx
+++ b/testing/xlsx/main_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brbb0\Documents\Delo\Bučar\KB-Calculate\KB-Calculate\testing\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3307B12A-154F-4C5D-9176-05D7815EE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC11FDC-35F9-497D-8455-E17700C92DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>MACHINE</t>
   </si>
@@ -104,24 +104,6 @@
   </si>
   <si>
     <t>83.52 %</t>
-  </si>
-  <si>
-    <t>/TRUMPF.NET/Workfiles/User1/500585.LST</t>
-  </si>
-  <si>
-    <t>AlMg3-30</t>
-  </si>
-  <si>
-    <t>700 x 780 x 3 mm</t>
-  </si>
-  <si>
-    <t>4.42 kg</t>
-  </si>
-  <si>
-    <t>0 : 01 : 35 [h:min:s]</t>
-  </si>
-  <si>
-    <t>30.07 %</t>
   </si>
 </sst>
 </file>
@@ -498,13 +480,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -610,36 +602,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H4 A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>